--- a/Results/Categorization/lda2vec-partial-ner-elmo-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-elmo-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1797">
   <si>
     <t>id</t>
   </si>
@@ -4039,219 +4039,207 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
@@ -4267,9 +4255,6 @@
     <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
@@ -4279,21 +4264,27 @@
     <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
     <t>SERVICE|SERVICE|PRICES</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|PRICES</t>
   </si>
   <si>
@@ -4321,67 +4312,61 @@
     <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
@@ -4411,18 +4396,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4465,7 +4444,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6</t>
+    <t>food|fresh|$6!-</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4486,7 +4465,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4552,7 +4531,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4564,6 +4543,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4618,7 +4600,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00...just</t>
+    <t>overpriced|price|$8.00!-</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4714,13 +4696,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4729,7 +4708,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4753,16 +4732,16 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18</t>
+    <t>menu|food|$18!-</t>
   </si>
   <si>
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
-  </si>
-  <si>
-    <t>dish|reasonable|price|$3-6</t>
+    <t>atmosphere|wait</t>
+  </si>
+  <si>
+    <t>dish|reasonable|price|$3-6!-</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4774,9 +4753,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4795,7 +4771,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4819,7 +4795,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4837,7 +4813,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70+</t>
+    <t>wine|$70!-|$30!-</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4864,7 +4840,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4897,7 +4873,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4918,7 +4894,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -4939,7 +4915,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing|$7)</t>
+    <t>like|$7!-</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -4960,7 +4936,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24</t>
+    <t>good|though|price|$24!-</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -4969,7 +4945,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10.</t>
+    <t>great|$10!-</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -4984,15 +4960,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5002,7 +4975,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5020,7 +4993,7 @@
     <t>worth|well|back</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>service|excellent</t>
@@ -5035,9 +5008,6 @@
     <t>pizza|price</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>wait|staff</t>
   </si>
   <si>
@@ -5047,19 +5017,16 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great</t>
+    <t>like|great|100 dollar!-</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5071,13 +5038,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>wait|staff|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5128,19 +5095,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5155,7 +5116,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5164,7 +5125,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5185,10 +5146,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5197,7 +5158,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60</t>
+    <t>good|though|meal|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5206,7 +5167,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5218,19 +5179,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5257,13 +5218,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10.</t>
-  </si>
-  <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>service|dish|price|$10!-</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5275,19 +5233,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>back|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5296,16 +5251,16 @@
     <t>would|dinner|meal</t>
   </si>
   <si>
-    <t>never|feel|restaurant|money.</t>
+    <t>never|feel|restaurant</t>
   </si>
   <si>
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25),</t>
-  </si>
-  <si>
-    <t>place|food|thing|$</t>
+    <t>place|would|feel|restaurant|price|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5314,19 +5269,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
+    <t>stone|bowl|$2!-</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29</t>
-  </si>
-  <si>
-    <t>good|reasonable|thing|great|price</t>
-  </si>
-  <si>
-    <t>service|rude|well|$500</t>
+    <t>menu|$29!-</t>
+  </si>
+  <si>
+    <t>good|reasonable|great|price</t>
+  </si>
+  <si>
+    <t>service|rude|well|$500!-</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5335,13 +5290,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24</t>
+    <t>never|restaurant|$24!-</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
@@ -5856,10 +5811,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="H2" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5885,7 +5840,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5908,10 +5863,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="H4" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5934,10 +5889,10 @@
         <v>1278</v>
       </c>
       <c r="G5" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="H5" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5960,10 +5915,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H6" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5986,10 +5941,10 @@
         <v>1278</v>
       </c>
       <c r="G7" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="H7" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6012,10 +5967,10 @@
         <v>1278</v>
       </c>
       <c r="G8" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="H8" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6038,10 +5993,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="H9" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6064,10 +6019,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="H10" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6090,10 +6045,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="H11" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6113,13 +6068,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1339</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1467</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6139,13 +6094,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="H13" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6168,10 +6123,10 @@
         <v>1339</v>
       </c>
       <c r="G14" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="H14" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6191,13 +6146,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G15" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="H15" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6217,13 +6172,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G16" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="H16" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6246,10 +6201,10 @@
         <v>1339</v>
       </c>
       <c r="G17" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="H17" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6272,10 +6227,10 @@
         <v>1340</v>
       </c>
       <c r="G18" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="H18" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6301,7 +6256,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6321,13 +6276,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G20" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H20" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6353,7 +6308,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6379,7 +6334,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6399,13 +6354,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G23" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="H23" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6428,10 +6383,10 @@
         <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="H24" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6457,7 +6412,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6477,13 +6432,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G26" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="H26" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6506,10 +6461,10 @@
         <v>1339</v>
       </c>
       <c r="G27" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="H27" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6532,10 +6487,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="H28" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6555,13 +6510,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G29" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="H29" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6581,13 +6536,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G30" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="H30" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6607,13 +6562,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="H31" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6633,13 +6588,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G32" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="H32" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6662,10 +6617,10 @@
         <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="H33" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6685,13 +6640,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G34" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="H34" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6714,10 +6669,10 @@
         <v>1278</v>
       </c>
       <c r="G35" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="H35" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6737,13 +6692,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G36" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="H36" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6766,10 +6721,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="H37" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6792,10 +6747,10 @@
         <v>1339</v>
       </c>
       <c r="G38" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="H38" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6815,13 +6770,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G39" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="H39" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6841,13 +6796,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G40" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="H40" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6867,13 +6822,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G41" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="H41" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6893,13 +6848,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G42" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="H42" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6919,13 +6874,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G43" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="H43" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6951,7 +6906,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6977,7 +6932,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7000,10 +6955,10 @@
         <v>1339</v>
       </c>
       <c r="G46" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="H46" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7029,7 +6984,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7049,13 +7004,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G48" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="H48" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7075,13 +7030,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G49" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="H49" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7104,10 +7059,10 @@
         <v>1339</v>
       </c>
       <c r="G50" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="H50" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7127,13 +7082,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G51" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="H51" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7153,13 +7108,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G52" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="H52" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7182,10 +7137,10 @@
         <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="H53" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7208,10 +7163,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="H54" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7231,13 +7186,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G55" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="H55" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7257,13 +7212,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G56" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="H56" t="s">
-        <v>1790</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7283,13 +7238,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G57" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="H57" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7309,13 +7264,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G58" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="H58" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7335,13 +7290,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G59" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="H59" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7364,10 +7319,10 @@
         <v>1278</v>
       </c>
       <c r="G60" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="H60" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7393,7 +7348,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7413,13 +7368,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G62" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="H62" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7439,13 +7394,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G63" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="H63" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7465,13 +7420,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G64" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="H64" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7494,10 +7449,10 @@
         <v>1340</v>
       </c>
       <c r="G65" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="H65" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7517,13 +7472,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G66" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="H66" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7546,10 +7501,10 @@
         <v>1339</v>
       </c>
       <c r="G67" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="H67" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7575,7 +7530,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7595,13 +7550,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G69" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="H69" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7624,10 +7579,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="H70" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7653,7 +7608,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7673,13 +7628,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G72" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="H72" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7699,13 +7654,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G73" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="H73" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7725,13 +7680,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G74" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="H74" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7757,7 +7712,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7777,13 +7732,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1369</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1509</v>
       </c>
       <c r="H76" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7806,10 +7761,10 @@
         <v>1339</v>
       </c>
       <c r="G77" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H77" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7829,13 +7784,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G78" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H78" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7858,10 +7813,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H79" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7881,13 +7836,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G80" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="H80" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7907,13 +7862,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G81" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="H81" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7933,13 +7888,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G82" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="H82" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7965,7 +7920,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7991,7 +7946,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8014,10 +7969,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H85" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8040,10 +7995,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="H86" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8063,13 +8018,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G87" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H87" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8089,13 +8044,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G88" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="H88" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8118,10 +8073,10 @@
         <v>1278</v>
       </c>
       <c r="G89" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="H89" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8147,7 +8102,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8167,13 +8122,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G91" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="H91" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8193,13 +8148,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G92" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="H92" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8219,13 +8174,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G93" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="H93" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8245,13 +8200,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G94" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="H94" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8271,13 +8226,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G95" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="H95" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8300,10 +8255,10 @@
         <v>1278</v>
       </c>
       <c r="G96" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H96" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8326,10 +8281,10 @@
         <v>1278</v>
       </c>
       <c r="G97" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H97" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8352,10 +8307,10 @@
         <v>1285</v>
       </c>
       <c r="G98" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="H98" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8375,13 +8330,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G99" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="H99" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8401,13 +8356,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G100" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="H100" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8430,10 +8385,10 @@
         <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="H101" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8453,13 +8408,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G102" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="H102" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8479,13 +8434,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G103" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="H103" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8508,10 +8463,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="H104" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8537,7 +8492,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8557,13 +8512,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G106" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="H106" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8583,13 +8538,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G107" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="H107" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8609,13 +8564,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G108" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="H108" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8638,10 +8593,10 @@
         <v>1285</v>
       </c>
       <c r="G109" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="H109" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8664,10 +8619,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="H110" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8690,10 +8645,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="H111" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8716,10 +8671,10 @@
         <v>1285</v>
       </c>
       <c r="G112" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H112" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8745,7 +8700,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8771,7 +8726,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8791,13 +8746,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G115" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="H115" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8817,13 +8772,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G116" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="H116" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8843,13 +8798,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G117" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="H117" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8869,13 +8824,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G118" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="H118" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8895,13 +8850,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G119" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="H119" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8927,7 +8882,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8953,7 +8908,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8979,7 +8934,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9005,7 +8960,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9028,10 +8983,10 @@
         <v>1339</v>
       </c>
       <c r="G124" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="H124" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9054,10 +9009,10 @@
         <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="H125" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9083,7 +9038,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9106,10 +9061,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="H127" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9129,13 +9084,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G128" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="H128" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9155,13 +9110,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G129" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="H129" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9181,13 +9136,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G130" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="H130" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9207,13 +9162,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G131" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="H131" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9236,10 +9191,10 @@
         <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="H132" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9259,13 +9214,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G133" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="H133" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9285,13 +9240,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G134" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="H134" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9317,7 +9272,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9340,10 +9295,10 @@
         <v>1339</v>
       </c>
       <c r="G136" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="H136" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9363,13 +9318,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G137" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="H137" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9389,13 +9344,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G138" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="H138" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9418,10 +9373,10 @@
         <v>1379</v>
       </c>
       <c r="G139" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="H139" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9441,13 +9396,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G140" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="H140" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9473,7 +9428,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9493,13 +9448,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G142" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="H142" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9519,13 +9474,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G143" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="H143" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9548,10 +9503,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="H144" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9577,7 +9532,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9600,10 +9555,10 @@
         <v>1380</v>
       </c>
       <c r="G146" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="H146" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9629,7 +9584,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9652,10 +9607,10 @@
         <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="H148" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9674,14 +9629,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1566</v>
-      </c>
       <c r="H149" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9704,10 +9653,10 @@
         <v>1381</v>
       </c>
       <c r="G150" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="H150" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9733,7 +9682,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9753,13 +9702,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1339</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="H152" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9782,10 +9731,10 @@
         <v>1382</v>
       </c>
       <c r="G153" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="H153" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9805,13 +9754,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G154" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="H154" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9831,13 +9780,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1285</v>
+        <v>1370</v>
       </c>
       <c r="G155" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="H155" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9860,10 +9809,10 @@
         <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="H156" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9886,10 +9835,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="H157" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9912,10 +9861,10 @@
         <v>1278</v>
       </c>
       <c r="G158" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="H158" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9935,13 +9884,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G159" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="H159" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9964,10 +9913,10 @@
         <v>1383</v>
       </c>
       <c r="G160" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="H160" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9993,7 +9942,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10013,13 +9962,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G162" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="H162" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10045,7 +9994,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10065,13 +10014,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G164" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="H164" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10094,10 +10043,10 @@
         <v>1384</v>
       </c>
       <c r="G165" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="H165" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10117,13 +10066,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G166" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="H166" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10143,13 +10092,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G167" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="H167" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10172,10 +10121,10 @@
         <v>1385</v>
       </c>
       <c r="G168" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="H168" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10198,10 +10147,10 @@
         <v>1386</v>
       </c>
       <c r="G169" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="H169" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10221,13 +10170,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G170" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="H170" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10247,13 +10196,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G171" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="H171" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10276,10 +10225,10 @@
         <v>1278</v>
       </c>
       <c r="G172" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H172" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10302,10 +10251,10 @@
         <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="H173" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10328,10 +10277,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1586</v>
+        <v>1561</v>
       </c>
       <c r="H174" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10354,10 +10303,10 @@
         <v>1387</v>
       </c>
       <c r="G175" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="H175" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10380,10 +10329,10 @@
         <v>1285</v>
       </c>
       <c r="G176" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H176" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10403,13 +10352,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G177" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="H177" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10432,10 +10381,10 @@
         <v>1388</v>
       </c>
       <c r="G178" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="H178" t="s">
-        <v>1798</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10458,10 +10407,10 @@
         <v>1389</v>
       </c>
       <c r="G179" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="H179" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10484,10 +10433,10 @@
         <v>1390</v>
       </c>
       <c r="G180" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="H180" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10507,13 +10456,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G181" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="H181" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10539,7 +10488,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10562,10 +10511,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="H183" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10585,13 +10534,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="H184" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10611,13 +10560,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G185" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H185" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10637,13 +10586,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G186" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="H186" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10666,10 +10615,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="H187" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10695,7 +10644,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10715,13 +10664,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G189" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="H189" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10747,7 +10696,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10770,10 +10719,10 @@
         <v>1339</v>
       </c>
       <c r="G191" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="H191" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10793,13 +10742,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G192" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="H192" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10819,13 +10768,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G193" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="H193" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10848,10 +10797,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="H194" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10877,7 +10826,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10897,13 +10846,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G196" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="H196" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10929,7 +10878,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10952,10 +10901,10 @@
         <v>1285</v>
       </c>
       <c r="G198" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H198" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10975,13 +10924,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="H199" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11004,10 +10953,10 @@
         <v>1338</v>
       </c>
       <c r="G200" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="H200" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11027,13 +10976,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G201" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="H201" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11053,13 +11002,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G202" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="H202" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11079,13 +11028,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G203" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="H203" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11105,13 +11054,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G204" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="H204" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11131,13 +11080,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G205" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="H205" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11157,13 +11106,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G206" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="H206" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11189,7 +11138,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11212,10 +11161,10 @@
         <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="H208" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11241,7 +11190,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11264,10 +11213,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="H210" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11287,13 +11236,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G211" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="H211" t="s">
-        <v>1799</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11313,13 +11262,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G212" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="H212" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11342,10 +11291,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="H213" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11365,13 +11314,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G214" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="H214" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11391,13 +11340,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G215" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="H215" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11423,7 +11372,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11443,13 +11392,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G217" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="H217" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11469,13 +11418,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1397</v>
+        <v>1363</v>
       </c>
       <c r="G218" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="H218" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11498,10 +11447,10 @@
         <v>1285</v>
       </c>
       <c r="G219" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="H219" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11521,13 +11470,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G220" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="H220" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11553,7 +11502,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11573,13 +11522,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G222" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="H222" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11599,13 +11548,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G223" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="H223" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11625,13 +11574,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G224" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="H224" t="s">
-        <v>1801</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11657,7 +11606,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11683,7 +11632,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11709,7 +11658,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11729,13 +11678,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G228" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="H228" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11755,13 +11704,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G229" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="H229" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11784,10 +11733,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="H230" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11813,7 +11762,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11836,10 +11785,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="H232" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11862,10 +11811,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="H233" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11885,13 +11834,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G234" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="H234" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11911,13 +11860,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1381</v>
+        <v>1341</v>
       </c>
       <c r="G235" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="H235" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11937,13 +11886,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="G236" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="H236" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11963,13 +11912,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="G237" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="H237" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11989,13 +11938,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G238" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="H238" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12018,10 +11967,10 @@
         <v>1339</v>
       </c>
       <c r="G239" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="H239" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12041,13 +11990,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G240" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="H240" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12070,10 +12019,10 @@
         <v>1285</v>
       </c>
       <c r="G241" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="H241" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12093,13 +12042,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G242" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="H242" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12119,13 +12068,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G243" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="H243" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12145,13 +12094,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="G244" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="H244" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12171,13 +12120,13 @@
         <v>1276</v>
       </c>
       <c r="F245" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="G245" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="H245" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12203,7 +12152,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12223,13 +12172,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="G247" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="H247" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12255,7 +12204,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12275,13 +12224,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="G249" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="H249" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12304,10 +12253,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="H250" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12327,13 +12276,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1381</v>
+        <v>1341</v>
       </c>
       <c r="G251" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="H251" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12353,13 +12302,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="G252" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="H252" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12379,13 +12328,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G253" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="H253" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12411,7 +12360,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12434,10 +12383,10 @@
         <v>1339</v>
       </c>
       <c r="G255" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="H255" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12460,10 +12409,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="H256" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12483,13 +12432,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G257" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="H257" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12509,13 +12458,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1351</v>
+        <v>1405</v>
       </c>
       <c r="G258" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="H258" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12541,7 +12490,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12564,10 +12513,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="H260" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12590,10 +12539,10 @@
         <v>1383</v>
       </c>
       <c r="G261" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="H261" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12619,7 +12568,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12639,13 +12588,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G263" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="H263" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12665,13 +12614,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G264" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="H264" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12691,13 +12640,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G265" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="H265" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12717,13 +12666,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1411</v>
+        <v>1366</v>
       </c>
       <c r="G266" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="H266" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12743,13 +12692,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="G267" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="H267" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12769,13 +12718,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G268" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="H268" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12795,13 +12744,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G269" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="H269" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12827,7 +12776,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12847,13 +12796,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G271" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="H271" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12873,13 +12822,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G272" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="H272" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12899,13 +12848,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G273" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="H273" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12925,13 +12874,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G274" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="H274" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12951,13 +12900,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="G275" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="H275" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12977,13 +12926,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="G276" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="H276" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13006,10 +12955,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="H277" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13029,13 +12978,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1417</v>
+        <v>1344</v>
       </c>
       <c r="G278" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="H278" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13055,13 +13004,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G279" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="H279" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13081,13 +13030,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1347</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1658</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13113,7 +13062,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13133,13 +13082,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="G282" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="H282" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13165,7 +13114,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13185,13 +13134,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="G284" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="H284" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13211,13 +13160,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="G285" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="H285" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13237,13 +13186,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="G286" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="H286" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13263,13 +13212,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G287" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="H287" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13292,10 +13241,10 @@
         <v>1278</v>
       </c>
       <c r="G288" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H288" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13318,10 +13267,10 @@
         <v>1278</v>
       </c>
       <c r="G289" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H289" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13341,13 +13290,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G290" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="H290" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13367,13 +13316,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G291" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="H291" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13393,13 +13342,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="G292" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="H292" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13422,10 +13371,10 @@
         <v>1383</v>
       </c>
       <c r="G293" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="H293" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13445,13 +13394,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G294" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="H294" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13477,7 +13426,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13497,13 +13446,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G296" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="H296" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13526,10 +13475,10 @@
         <v>1285</v>
       </c>
       <c r="G297" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="H297" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13549,13 +13498,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1371</v>
+        <v>1418</v>
       </c>
       <c r="G298" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="H298" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13575,13 +13524,13 @@
         <v>1276</v>
       </c>
       <c r="F299" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G299" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="H299" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13601,13 +13550,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G300" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="H300" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13630,10 +13579,10 @@
         <v>1379</v>
       </c>
       <c r="G301" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="H301" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13653,13 +13602,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G302" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="H302" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13679,13 +13628,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1673</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13711,7 +13660,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13737,7 +13686,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13757,13 +13706,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G306" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="H306" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13789,7 +13738,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13812,10 +13761,10 @@
         <v>1384</v>
       </c>
       <c r="G308" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="H308" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13841,7 +13790,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13867,7 +13816,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13893,7 +13842,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13913,13 +13862,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G312" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="H312" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13939,13 +13888,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1365</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1677</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13971,7 +13920,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13991,13 +13940,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G315" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="H315" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14017,13 +13966,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1351</v>
+        <v>1419</v>
       </c>
       <c r="G316" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="H316" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14043,13 +13992,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G317" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="H317" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14072,10 +14021,10 @@
         <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="H318" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14094,8 +14043,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14115,13 +14070,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G320" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="H320" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14141,13 +14096,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1378</v>
+        <v>1420</v>
       </c>
       <c r="G321" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="H321" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14167,13 +14122,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G322" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="H322" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14193,13 +14148,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G323" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="H323" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14219,13 +14174,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G324" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="H324" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14251,7 +14206,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14277,7 +14232,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14297,13 +14252,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G327" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="H327" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14323,13 +14278,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G328" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="H328" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14349,13 +14304,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="G329" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="H329" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14378,10 +14333,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="H330" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14401,13 +14356,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="G331" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="H331" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14430,10 +14385,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="H332" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14453,13 +14408,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="G333" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="H333" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14482,10 +14437,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="H334" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14505,13 +14460,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G335" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="H335" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14531,13 +14486,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="G336" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="H336" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14557,13 +14512,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G337" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="H337" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14583,13 +14538,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="G338" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="H338" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14609,13 +14564,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G339" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="H339" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14638,10 +14593,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="H340" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14661,13 +14616,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G341" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="H341" t="s">
-        <v>1803</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14687,13 +14642,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G342" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H342" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14713,13 +14668,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G343" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="H343" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14739,13 +14694,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="G344" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="H344" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14765,13 +14720,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G345" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="H345" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14791,13 +14746,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G346" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="H346" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14820,10 +14775,10 @@
         <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="H347" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14849,7 +14804,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14875,7 +14830,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14895,13 +14850,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G350" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H350" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14921,13 +14876,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="G351" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
       <c r="H351" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14947,13 +14902,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G352" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="H352" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14979,7 +14934,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14999,13 +14954,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1403</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1704</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15028,10 +14983,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="H355" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15057,7 +15012,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15077,13 +15032,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G357" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="H357" t="s">
-        <v>1804</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15103,13 +15058,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G358" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H358" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15132,10 +15087,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="H359" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15161,7 +15116,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15181,13 +15136,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1435</v>
+        <v>1370</v>
       </c>
       <c r="G361" t="s">
-        <v>1706</v>
+        <v>1511</v>
       </c>
       <c r="H361" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15210,10 +15165,10 @@
         <v>1278</v>
       </c>
       <c r="G362" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="H362" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15233,13 +15188,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G363" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="H363" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15259,13 +15214,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1437</v>
+        <v>1361</v>
       </c>
       <c r="G364" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="H364" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15285,13 +15240,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G365" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="H365" t="s">
-        <v>1805</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15311,13 +15266,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="G366" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="H366" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15340,10 +15295,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="H367" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15363,13 +15318,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G368" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="H368" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15389,13 +15344,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G369" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H369" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15414,14 +15369,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1566</v>
-      </c>
       <c r="H370" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15444,10 +15393,10 @@
         <v>1339</v>
       </c>
       <c r="G371" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="H371" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15467,13 +15416,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G372" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="H372" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15493,13 +15442,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1433</v>
       </c>
       <c r="G373" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="H373" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15519,7 +15468,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15545,7 +15494,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15565,13 +15514,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="G376" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="H376" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15591,13 +15540,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G377" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="H377" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15617,13 +15566,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1372</v>
+        <v>1355</v>
       </c>
       <c r="G378" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="H378" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15643,13 +15592,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="G379" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="H379" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15669,13 +15618,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G380" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="H380" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15698,10 +15647,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="H381" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15721,13 +15670,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="G382" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="H382" t="s">
-        <v>1806</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15747,13 +15696,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="G383" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="H383" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15773,13 +15722,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="G384" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="H384" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15799,13 +15748,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G385" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="H385" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15825,13 +15774,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="G386" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="H386" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15851,13 +15800,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G387" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="H387" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15877,13 +15826,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G388" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="H388" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15903,13 +15852,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G389" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="H389" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15929,13 +15878,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G390" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="H390" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15955,13 +15904,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G391" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="H391" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15981,13 +15930,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G392" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="H392" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16007,13 +15956,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="G393" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="H393" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16033,13 +15982,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="G394" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="H394" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16059,13 +16008,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="G395" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="H395" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16085,13 +16034,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1354</v>
+        <v>1383</v>
       </c>
       <c r="G396" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="H396" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16111,13 +16060,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G397" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="H397" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16143,7 +16092,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16163,13 +16112,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G399" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="H399" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16189,13 +16138,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G400" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="H400" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16221,7 +16170,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16241,13 +16190,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G402" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="H402" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16270,10 +16219,10 @@
         <v>1383</v>
       </c>
       <c r="G403" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="H403" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16293,13 +16242,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G404" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H404" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16322,10 +16271,10 @@
         <v>1338</v>
       </c>
       <c r="G405" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="H405" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16351,7 +16300,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16371,13 +16320,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G407" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="H407" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16400,10 +16349,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H408" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16429,7 +16378,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16455,7 +16404,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16475,13 +16424,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="G411" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="H411" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16504,10 +16453,10 @@
         <v>1276</v>
       </c>
       <c r="G412" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="H412" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16527,13 +16476,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G413" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="H413" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16553,13 +16502,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="G414" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="H414" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16582,10 +16531,10 @@
         <v>1384</v>
       </c>
       <c r="G415" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
       <c r="H415" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16605,13 +16554,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G416" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="H416" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16634,10 +16583,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H417" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16657,13 +16606,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G418" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="H418" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16683,13 +16632,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G419" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="H419" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16709,13 +16658,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="G420" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="H420" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16738,10 +16687,10 @@
         <v>1383</v>
       </c>
       <c r="G421" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="H421" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16761,13 +16710,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G422" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="H422" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16793,7 +16742,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16819,7 +16768,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16842,10 +16791,10 @@
         <v>1383</v>
       </c>
       <c r="G425" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="H425" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16868,10 +16817,10 @@
         <v>1385</v>
       </c>
       <c r="G426" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="H426" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16891,13 +16840,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1372</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
-        <v>1748</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16920,10 +16869,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="H428" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16946,10 +16895,10 @@
         <v>1285</v>
       </c>
       <c r="G429" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="H429" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16969,13 +16918,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="G430" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="H430" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16995,13 +16944,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G431" t="s">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="H431" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17027,7 +16976,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17047,13 +16996,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="G433" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="H433" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17076,10 +17025,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="H434" t="s">
-        <v>1805</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17099,13 +17048,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="G435" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="H435" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17128,10 +17077,10 @@
         <v>1340</v>
       </c>
       <c r="G436" t="s">
-        <v>1754</v>
+        <v>1740</v>
       </c>
       <c r="H436" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17151,13 +17100,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1755</v>
+        <v>1457</v>
       </c>
       <c r="H437" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17183,7 +17132,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17203,13 +17152,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G439" t="s">
-        <v>1756</v>
+        <v>1741</v>
       </c>
       <c r="H439" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17229,13 +17178,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G440" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="H440" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17255,13 +17204,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G441" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
       <c r="H441" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17281,13 +17230,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G442" t="s">
-        <v>1759</v>
+        <v>1744</v>
       </c>
       <c r="H442" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17307,13 +17256,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="G443" t="s">
-        <v>1760</v>
+        <v>1745</v>
       </c>
       <c r="H443" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17333,13 +17282,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G444" t="s">
-        <v>1761</v>
+        <v>1746</v>
       </c>
       <c r="H444" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17359,13 +17308,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="G445" t="s">
-        <v>1762</v>
+        <v>1747</v>
       </c>
       <c r="H445" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17385,13 +17334,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1439</v>
+        <v>1449</v>
       </c>
       <c r="G446" t="s">
-        <v>1763</v>
+        <v>1748</v>
       </c>
       <c r="H446" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17414,10 +17363,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="H447" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17440,10 +17389,10 @@
         <v>1338</v>
       </c>
       <c r="G448" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H448" t="s">
         <v>1765</v>
-      </c>
-      <c r="H448" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17463,13 +17412,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1435</v>
+        <v>1449</v>
       </c>
       <c r="G449" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
       <c r="H449" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17492,10 +17441,10 @@
         <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="H450" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17515,13 +17464,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G451" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="H451" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17541,13 +17490,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="G452" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="H452" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17567,13 +17516,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="G453" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="H453" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17596,10 +17545,10 @@
         <v>1385</v>
       </c>
       <c r="G454" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="H454" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17619,13 +17568,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="G455" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="H455" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17645,13 +17594,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="G456" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="H456" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17671,13 +17620,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G457" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="H457" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17703,7 +17652,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17723,13 +17672,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G459" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="H459" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17752,10 +17701,10 @@
         <v>1340</v>
       </c>
       <c r="G460" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
       <c r="H460" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17775,13 +17724,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="G461" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
       <c r="H461" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17807,7 +17756,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17830,10 +17779,10 @@
         <v>1339</v>
       </c>
       <c r="G463" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="H463" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda2vec-partial-ner-elmo-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-elmo-money.xlsx
@@ -4444,7 +4444,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6!-</t>
+    <t>food|fresh|$6</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4531,7 +4531,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4600,7 +4600,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00!-</t>
+    <t>overpriced|price|$8.00</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4732,7 +4732,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18!-</t>
+    <t>menu|food|$18</t>
   </si>
   <si>
     <t>service|food|great|price</t>
@@ -4741,7 +4741,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>dish|reasonable|price|$3-6!-</t>
+    <t>dish|reasonable|price|$3-6</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4813,7 +4813,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4915,7 +4915,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -4936,7 +4936,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24!-</t>
+    <t>good|though|price|$24</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -4945,7 +4945,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5026,7 +5026,7 @@
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great|100 dollar!-</t>
+    <t>like|great|100 dollar</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5038,13 +5038,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|$*!-</t>
+    <t>wait|staff|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5146,10 +5146,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5158,7 +5158,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60!-</t>
+    <t>good|though|meal|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5179,19 +5179,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5218,10 +5218,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10!-</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500!-</t>
+    <t>service|dish|price|$10</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5236,13 +5236,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5257,10 +5257,10 @@
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|would|feel|restaurant|price|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5269,19 +5269,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29!-</t>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>good|reasonable|great|price</t>
   </si>
   <si>
-    <t>service|rude|well|$500!-</t>
+    <t>service|rude|well|$500</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5290,13 +5290,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24!-</t>
+    <t>never|restaurant|$24</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
